--- a/CL-DB/tbl-Mission.xlsx
+++ b/CL-DB/tbl-Mission.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab88c85b05b46da4/Desktop/CL-DB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab88c85b05b46da4/Desktop/Design1/CL-DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_F25DC773A252ABDACC1048BFA1D96D7A5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3806C88-E957-412B-BD01-5F551BEA25DC}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="11_F25DC773A252ABDACC1048BFA1D96D7A5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BAEC25F-CD16-40F3-A2B6-6DDD6BAC33F8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,7 +398,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,17 +462,42 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
